--- a/output/business.xlsx
+++ b/output/business.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,68 +453,153 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alabama - AL</t>
+          <t>New York - NY</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.bbb.org/us/al/birmingham/category/abortion-alternatives</t>
+          <t>https://www.bbb.org/us/ny/new-york/category/abortion-alternatives</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alabama - AL</t>
+          <t>New York - NY</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.bbb.org/us/al/birmingham/category/abortion-services</t>
+          <t>https://www.bbb.org/us/ny/new-york/category/abortion-services</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Alabama - AL</t>
+          <t>New York - NY</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.bbb.org/us/al/birmingham/category/above-ground-pools</t>
+          <t>https://www.bbb.org/us/ny/new-york/category/above-ground-pools</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>112</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alabama - AL</t>
+          <t>New York - NY</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.bbb.org/us/al/birmingham/category/abrasives</t>
+          <t>https://www.bbb.org/us/ny/new-york/category/abrasives</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>New York - NY</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/us/ny/new-york/category/absorbents</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>New York - NY</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/us/ny/new-york/category/abstracters</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>New York - NY</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/us/ny/new-york/category/access-control-systems</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>New York - NY</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/us/ny/new-york/category/accessible-web-design</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>New York - NY</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.bbb.org/us/ny/new-york/category/accessories</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>245</t>
         </is>
       </c>
     </row>
